--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -629,8 +629,8 @@
   </sheetPr>
   <dimension ref="A1:AA1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1110</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1200</v>
       </c>
